--- a/Cresent Energy.xlsx
+++ b/Cresent Energy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8478B662-7057-445B-9DF6-BE48F84F66C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D3D676-B349-477A-98DE-13C3A0F53B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -502,7 +502,6 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -515,6 +514,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -862,11 +865,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5617B1-6F9A-4390-87CA-ABDEA38ECD6A}">
-  <dimension ref="A1:X79"/>
+  <dimension ref="A1:XFD79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <pane xSplit="5652" topLeftCell="F1" activePane="topRight"/>
-      <selection pane="topRight" activeCell="N78" sqref="N78"/>
+    <sheetView showGridLines="0" topLeftCell="A59" workbookViewId="0">
+      <pane xSplit="5652" topLeftCell="N1" activePane="topRight"/>
+      <selection pane="topRight" activeCell="T79" sqref="T79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -879,20 +882,21 @@
     <col min="10" max="11" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8.88671875" style="1"/>
     <col min="14" max="14" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="8.88671875" style="1"/>
+    <col min="15" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.88671875" style="1"/>
+    <col min="20" max="21" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23 16384:16384" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23 16384:16384" x14ac:dyDescent="0.3">
       <c r="C3" s="7">
         <v>2019</v>
       </c>
@@ -920,32 +924,32 @@
       <c r="K3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="V3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23 16384:16384" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -967,14 +971,26 @@
       <c r="H4" s="6">
         <v>2130418</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <f>H4*1.07</f>
         <v>2279547.2600000002</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6">
+        <v>548430</v>
+      </c>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6">
+        <v>619658</v>
+      </c>
+      <c r="U4" s="6">
+        <v>602488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23 16384:16384" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -996,14 +1012,26 @@
       <c r="H5" s="6">
         <v>349858</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <f>H5*1.03</f>
         <v>360353.74</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6">
+        <v>78790</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6">
+        <v>187440</v>
+      </c>
+      <c r="U5" s="6">
+        <v>159001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23 16384:16384" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1025,14 +1053,26 @@
       <c r="H6" s="6">
         <v>316981</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <f>H6*1.03</f>
         <v>326490.43</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6">
+        <v>87253</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6">
+        <v>107575</v>
+      </c>
+      <c r="U6" s="6">
+        <v>98142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23 16384:16384" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,14 +1094,26 @@
       <c r="H7" s="6">
         <v>133662</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <f>H7*1.09</f>
         <v>145691.58000000002</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6">
+        <v>30401</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6">
+        <v>35499</v>
+      </c>
+      <c r="U7" s="6">
+        <v>38352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23 16384:16384" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1089,7 +1141,7 @@
         <f>SUM(H4:H7)</f>
         <v>2930919</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <f t="shared" ref="I8:K8" si="1">SUM(I4:I7)</f>
         <v>3112083.0100000002</v>
       </c>
@@ -1101,8 +1153,33 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="P8" s="11">
+        <f t="shared" ref="P8:U8" si="2">SUM(P4:P7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="11">
+        <f t="shared" si="2"/>
+        <v>744874</v>
+      </c>
+      <c r="S8" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="11">
+        <f t="shared" si="2"/>
+        <v>950172</v>
+      </c>
+      <c r="U8" s="11">
+        <f t="shared" si="2"/>
+        <v>897983</v>
+      </c>
+      <c r="XFD8" s="11"/>
+    </row>
+    <row r="9" spans="1:23 16384:16384" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1124,11 +1201,23 @@
       <c r="H9" s="6">
         <v>528822</v>
       </c>
-      <c r="I9" s="20"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6">
+        <v>129546</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6">
+        <v>161595</v>
+      </c>
+      <c r="U9" s="6">
+        <v>160150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23 16384:16384" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1150,11 +1239,23 @@
       <c r="H10" s="6">
         <v>60312</v>
       </c>
-      <c r="I10" s="20"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6">
+        <v>15347</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6">
+        <v>16022</v>
+      </c>
+      <c r="U10" s="6">
+        <v>19360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23 16384:16384" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1176,11 +1277,23 @@
       <c r="H11" s="6">
         <v>103220</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6">
+        <v>23771</v>
+      </c>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6">
+        <v>30410</v>
+      </c>
+      <c r="U11" s="6">
+        <v>20315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23 16384:16384" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1202,11 +1315,23 @@
       <c r="H12" s="6">
         <v>312931</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6">
+        <v>89405</v>
+      </c>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6">
+        <v>105287</v>
+      </c>
+      <c r="U12" s="6">
+        <v>106074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23 16384:16384" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1228,11 +1353,23 @@
       <c r="H13" s="6">
         <v>162634</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6">
+        <v>43171</v>
+      </c>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6">
+        <v>60381</v>
+      </c>
+      <c r="U13" s="6">
+        <v>55105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23 16384:16384" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1254,11 +1391,23 @@
       <c r="H14" s="6">
         <v>949480</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6">
+        <v>251498</v>
+      </c>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6">
+        <v>282573</v>
+      </c>
+      <c r="U14" s="6">
+        <v>297056</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23 16384:16384" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1280,11 +1429,23 @@
       <c r="H15" s="6">
         <v>161542</v>
       </c>
-      <c r="I15" s="20"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6">
+        <v>0</v>
+      </c>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6">
+        <v>45647</v>
+      </c>
+      <c r="U15" s="6">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23 16384:16384" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1306,11 +1467,23 @@
       <c r="H16" s="6">
         <v>16591</v>
       </c>
-      <c r="I16" s="20"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6">
+        <v>14565</v>
+      </c>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6">
+        <v>306</v>
+      </c>
+      <c r="U16" s="6">
+        <v>5574</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
@@ -1332,11 +1505,23 @@
       <c r="H17" s="6">
         <v>110136</v>
       </c>
-      <c r="I17" s="20"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6">
+        <v>25304</v>
+      </c>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6">
+        <v>29816</v>
+      </c>
+      <c r="U17" s="6">
+        <v>29027</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1358,11 +1543,23 @@
       <c r="H18" s="6">
         <v>336219</v>
       </c>
-      <c r="I18" s="20"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6">
+        <v>159677</v>
+      </c>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6">
+        <v>56770</v>
+      </c>
+      <c r="U18" s="6">
+        <v>124612</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1384,16 +1581,28 @@
       <c r="H19" s="6">
         <v>-29430</v>
       </c>
-      <c r="I19" s="20"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6">
+        <v>12</v>
+      </c>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6">
+        <v>-10862</v>
+      </c>
+      <c r="U19" s="6">
+        <v>-1910</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" ref="C20:G20" si="2">SUM(C9:C19)</f>
+        <f t="shared" ref="C20:G20" si="3">SUM(C9:C19)</f>
         <v>860126</v>
       </c>
       <c r="D20" s="6">
@@ -1401,76 +1610,124 @@
         <v>1127849</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>993238</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1772900</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2057862</v>
       </c>
       <c r="H20" s="6">
         <f>SUM(H9:H19)</f>
         <v>2712457</v>
       </c>
-      <c r="I20" s="20">
-        <f t="shared" ref="I20:K20" si="3">SUM(I9:I19)</f>
+      <c r="I20" s="19">
+        <f t="shared" ref="I20:K20" si="4">SUM(I9:I19)</f>
         <v>0</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
+        <f t="shared" ref="P20:U20" si="5">SUM(P9:P19)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="6">
+        <f t="shared" si="5"/>
+        <v>752296</v>
+      </c>
+      <c r="S20" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="6">
+        <f t="shared" si="5"/>
+        <v>777945</v>
+      </c>
+      <c r="U20" s="6">
+        <f>SUM(U9:U19)</f>
+        <v>818348</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13">
-        <f t="shared" ref="C21:G21" si="4">C8-C20</f>
+        <f t="shared" ref="C21:G21" si="6">C8-C20</f>
         <v>227114</v>
       </c>
       <c r="D21" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-373628</v>
       </c>
       <c r="E21" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>483739</v>
       </c>
       <c r="F21" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1284165</v>
       </c>
       <c r="G21" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>324740</v>
       </c>
       <c r="H21" s="13">
         <f>H8-H20</f>
         <v>218462</v>
       </c>
-      <c r="I21" s="22">
-        <f t="shared" ref="I21:K21" si="5">I8-I20</f>
+      <c r="I21" s="21">
+        <f t="shared" ref="I21:K21" si="7">I8-I20</f>
         <v>3112083.0100000002</v>
       </c>
       <c r="J21" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K21" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="13">
+        <f t="shared" ref="P21:U21" si="8">P8-P20</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="13">
+        <f t="shared" si="8"/>
+        <v>-7422</v>
+      </c>
+      <c r="S21" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="13">
+        <f t="shared" si="8"/>
+        <v>172227</v>
+      </c>
+      <c r="U21" s="13">
+        <f t="shared" si="8"/>
+        <v>79635</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1492,11 +1749,23 @@
       <c r="H22" s="6">
         <v>-114348</v>
       </c>
-      <c r="I22" s="20"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6">
+        <v>96881</v>
+      </c>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6">
+        <v>-91028</v>
+      </c>
+      <c r="U22" s="6">
+        <v>198585</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1518,11 +1787,23 @@
       <c r="H23" s="6">
         <v>-216263</v>
       </c>
-      <c r="I23" s="20"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6">
+        <v>-61840</v>
+      </c>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6">
+        <v>-73182</v>
+      </c>
+      <c r="U23" s="6">
+        <v>-75219</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1544,11 +1825,23 @@
       <c r="H24" s="6">
         <v>-59095</v>
       </c>
-      <c r="I24" s="20"/>
+      <c r="I24" s="19"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6">
+        <v>-36513</v>
+      </c>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6">
+        <v>0</v>
+      </c>
+      <c r="U24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1570,11 +1863,23 @@
       <c r="H25" s="6">
         <v>1760</v>
       </c>
-      <c r="I25" s="20"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6">
+        <v>1631</v>
+      </c>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6">
+        <v>115</v>
+      </c>
+      <c r="U25" s="6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>90</v>
       </c>
@@ -1596,11 +1901,23 @@
       <c r="H26" s="6">
         <v>729</v>
       </c>
-      <c r="I26" s="20"/>
+      <c r="I26" s="19"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6">
+        <v>44</v>
+      </c>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6">
+        <v>392</v>
+      </c>
+      <c r="U26" s="6">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
@@ -1628,43 +1945,91 @@
         <f>SUM(H22:H26)</f>
         <v>-387217</v>
       </c>
-      <c r="I27" s="20"/>
+      <c r="I27" s="19"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P27" s="6">
+        <f t="shared" ref="P27:U27" si="9">SUM(P22:P26)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="6">
+        <f t="shared" si="9"/>
+        <v>203</v>
+      </c>
+      <c r="S27" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="6">
+        <f t="shared" si="9"/>
+        <v>-163703</v>
+      </c>
+      <c r="U27" s="6">
+        <f t="shared" si="9"/>
+        <v>123920</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" ref="C28:G28" si="6">SUM(C27,C21)</f>
+        <f t="shared" ref="C28:G28" si="10">SUM(C27,C21)</f>
         <v>46737</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-216110</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-432533</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>516891</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>345218</v>
       </c>
       <c r="H28" s="6">
         <f>SUM(H27,H21)</f>
         <v>-168755</v>
       </c>
-      <c r="I28" s="20"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P28" s="6">
+        <f t="shared" ref="P28:U28" si="11">SUM(P27,P21)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="6">
+        <f t="shared" si="11"/>
+        <v>-7219</v>
+      </c>
+      <c r="S28" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="6">
+        <f t="shared" si="11"/>
+        <v>8524</v>
+      </c>
+      <c r="U28" s="6">
+        <f t="shared" si="11"/>
+        <v>203555</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
@@ -1686,43 +2051,79 @@
       <c r="H29" s="6">
         <v>-31072</v>
       </c>
-      <c r="I29" s="20"/>
+      <c r="I29" s="19"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6">
+        <v>-1640</v>
+      </c>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6">
+        <v>2613</v>
+      </c>
+      <c r="U29" s="6">
+        <v>41057</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="6">
-        <f t="shared" ref="C30:G30" si="7">C28-C29</f>
+        <f t="shared" ref="C30:G30" si="12">C28-C29</f>
         <v>46709</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-216124</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-432227</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>480600</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>321991</v>
       </c>
       <c r="H30" s="6">
         <f>H28-H29</f>
         <v>-137683</v>
       </c>
-      <c r="I30" s="20"/>
+      <c r="I30" s="19"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P30" s="6">
+        <f t="shared" ref="P30:U30" si="13">P28-P29</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="6">
+        <f t="shared" si="13"/>
+        <v>-5579</v>
+      </c>
+      <c r="S30" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="6">
+        <f t="shared" si="13"/>
+        <v>5911</v>
+      </c>
+      <c r="U30" s="6">
+        <f t="shared" si="13"/>
+        <v>162498</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>91</v>
       </c>
@@ -1744,11 +2145,23 @@
       <c r="H31" s="6">
         <v>0</v>
       </c>
-      <c r="I31" s="20"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6">
+        <v>0</v>
+      </c>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6">
+        <v>0</v>
+      </c>
+      <c r="U31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
@@ -1770,11 +2183,23 @@
       <c r="H32" s="6">
         <v>1215</v>
       </c>
-      <c r="I32" s="20"/>
+      <c r="I32" s="19"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6">
+        <v>765</v>
+      </c>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6">
+        <v>-1989</v>
+      </c>
+      <c r="U32" s="6">
+        <v>-1299</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
@@ -1796,20 +2221,32 @@
       <c r="H33" s="6">
         <v>21863</v>
       </c>
-      <c r="I33" s="20"/>
+      <c r="I33" s="19"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6">
+        <v>-5131</v>
+      </c>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6">
+        <v>-6072</v>
+      </c>
+      <c r="U33" s="6">
+        <v>-7978</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="13">
-        <f t="shared" ref="C34:D34" si="8">C30-C32-C33-C31</f>
+        <f t="shared" ref="C34:D34" si="14">C30-C32-C33-C31</f>
         <v>0</v>
       </c>
       <c r="D34" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-432248</v>
       </c>
       <c r="E34" s="13">
@@ -1817,22 +2254,46 @@
         <v>-19376</v>
       </c>
       <c r="F34" s="13">
-        <f t="shared" ref="F34:G34" si="9">F30-F32-F33</f>
+        <f t="shared" ref="F34:G34" si="15">F30-F32-F33</f>
         <v>96674</v>
       </c>
       <c r="G34" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>67610</v>
       </c>
       <c r="H34" s="13">
         <f>SUM(H30:H33)</f>
         <v>-114605</v>
       </c>
-      <c r="I34" s="21"/>
+      <c r="I34" s="20"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P34" s="13">
+        <f>SUM(P30:P33)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="13">
+        <f>SUM(Q30:Q33)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="13">
+        <f>SUM(R30:R33)</f>
+        <v>-9945</v>
+      </c>
+      <c r="S34" s="13">
+        <f>SUM(S30:S33)</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="13">
+        <f>SUM(T30:T33)</f>
+        <v>-2150</v>
+      </c>
+      <c r="U34" s="13">
+        <f>SUM(U30:U33)</f>
+        <v>153221</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>40</v>
       </c>
@@ -1850,8 +2311,20 @@
       <c r="H35" s="8">
         <v>-0.88</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31">
+        <v>-0.01</v>
+      </c>
+      <c r="U35" s="31">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1869,8 +2342,20 @@
       <c r="H36" s="1">
         <v>-0.88</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31">
+        <v>-0.01</v>
+      </c>
+      <c r="U36" s="31">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>42</v>
       </c>
@@ -1888,8 +2373,20 @@
       <c r="H37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31">
+        <v>0</v>
+      </c>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31">
+        <v>0</v>
+      </c>
+      <c r="U37" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>43</v>
       </c>
@@ -1907,8 +2404,20 @@
       <c r="H38" s="15">
         <v>130715</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6">
+        <v>146620</v>
+      </c>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6">
+        <v>191294</v>
+      </c>
+      <c r="U38" s="6">
+        <v>253174</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,8 +2435,20 @@
       <c r="H39" s="6">
         <v>130715</v>
       </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6">
+        <v>146620</v>
+      </c>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6">
+        <v>191294</v>
+      </c>
+      <c r="U39" s="6">
+        <v>255447</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>45</v>
       </c>
@@ -1945,8 +2466,28 @@
       <c r="H40" s="6">
         <v>70519</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6">
+        <v>65948</v>
+      </c>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6">
+        <v>65260</v>
+      </c>
+      <c r="U40" s="6">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>46</v>
       </c>
@@ -1956,11 +2497,23 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
-      <c r="I42" s="20"/>
+      <c r="I42" s="19"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6">
+        <v>136151</v>
+      </c>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6">
+        <v>6255</v>
+      </c>
+      <c r="U42" s="6">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>47</v>
       </c>
@@ -1970,11 +2523,23 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="20"/>
+      <c r="I43" s="19"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6">
+        <v>0</v>
+      </c>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6">
+        <v>3247</v>
+      </c>
+      <c r="U43" s="6">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>48</v>
       </c>
@@ -1984,11 +2549,23 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="20"/>
+      <c r="I44" s="19"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6">
+        <v>507657</v>
+      </c>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6">
+        <v>612129</v>
+      </c>
+      <c r="U44" s="6">
+        <v>595356</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>49</v>
       </c>
@@ -1998,11 +2575,23 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="20"/>
+      <c r="I45" s="19"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6">
+        <v>975</v>
+      </c>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6">
+        <v>650</v>
+      </c>
+      <c r="U45" s="6">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
@@ -2012,11 +2601,23 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="20"/>
+      <c r="I46" s="19"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6">
+        <v>130543</v>
+      </c>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6">
+        <v>4891</v>
+      </c>
+      <c r="U46" s="6">
+        <v>97682</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>51</v>
       </c>
@@ -2026,11 +2627,23 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="20"/>
+      <c r="I47" s="19"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6">
+        <v>46744</v>
+      </c>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6">
+        <v>38728</v>
+      </c>
+      <c r="U47" s="6">
+        <v>41668</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>52</v>
       </c>
@@ -2040,43 +2653,79 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="20"/>
+      <c r="I48" s="19"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6">
+        <v>42635</v>
+      </c>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6">
+        <v>13367</v>
+      </c>
+      <c r="U48" s="6">
+        <v>10748</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="6">
-        <f t="shared" ref="C49:G49" si="10">SUM(C42:C48)</f>
+        <f t="shared" ref="C49:G49" si="16">SUM(C42:C48)</f>
         <v>0</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E49" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H49" s="6">
         <f>SUM(H42:H48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="20"/>
+      <c r="I49" s="19"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P49" s="6">
+        <f t="shared" ref="P49:U49" si="17">SUM(P42:P48)</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="6">
+        <f t="shared" si="17"/>
+        <v>864705</v>
+      </c>
+      <c r="S49" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="6">
+        <f t="shared" si="17"/>
+        <v>679267</v>
+      </c>
+      <c r="U49" s="6">
+        <f t="shared" si="17"/>
+        <v>753271</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
         <v>54</v>
       </c>
@@ -2086,11 +2735,23 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="20"/>
+      <c r="I50" s="19"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6">
+        <v>11014507</v>
+      </c>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6">
+        <v>12688077</v>
+      </c>
+      <c r="U50" s="6">
+        <v>12767752</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>55</v>
       </c>
@@ -2100,43 +2761,79 @@
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
-      <c r="I51" s="20"/>
+      <c r="I51" s="19"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6">
+        <v>481344</v>
+      </c>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6">
+        <v>365964</v>
+      </c>
+      <c r="U51" s="6">
+        <v>381473</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C52" s="6">
-        <f t="shared" ref="C52:G52" si="11">SUM(C50:C51)</f>
+        <f t="shared" ref="C52:G52" si="18">SUM(C50:C51)</f>
         <v>0</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E52" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H52" s="6">
         <f>SUM(H50:H51)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="20"/>
+      <c r="I52" s="19"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P52" s="6">
+        <f t="shared" ref="P52:U52" si="19">SUM(P50:P51)</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="6">
+        <f t="shared" si="19"/>
+        <v>11495851</v>
+      </c>
+      <c r="S52" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="6">
+        <f t="shared" si="19"/>
+        <v>13054041</v>
+      </c>
+      <c r="U52" s="6">
+        <f t="shared" si="19"/>
+        <v>13149225</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>57</v>
       </c>
@@ -2146,43 +2843,79 @@
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
-      <c r="I53" s="20"/>
+      <c r="I53" s="19"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6">
+        <v>207558</v>
+      </c>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6">
+        <v>230077</v>
+      </c>
+      <c r="U53" s="6">
+        <v>230951</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C54" s="6">
-        <f t="shared" ref="C54:G54" si="12">SUM(C52:C53)</f>
+        <f t="shared" ref="C54:G54" si="20">SUM(C52:C53)</f>
         <v>0</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E54" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H54" s="6">
         <f>SUM(H52:H53)</f>
         <v>0</v>
       </c>
-      <c r="I54" s="20"/>
+      <c r="I54" s="19"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P54" s="6">
+        <f t="shared" ref="P54:U54" si="21">SUM(P52:P53)</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="6">
+        <f t="shared" si="21"/>
+        <v>11703409</v>
+      </c>
+      <c r="S54" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="6">
+        <f t="shared" si="21"/>
+        <v>13284118</v>
+      </c>
+      <c r="U54" s="6">
+        <f t="shared" si="21"/>
+        <v>13380176</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>59</v>
       </c>
@@ -2192,43 +2925,79 @@
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
-      <c r="I55" s="20"/>
+      <c r="I55" s="19"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6">
+        <v>-3495131</v>
+      </c>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6">
+        <v>-4217540</v>
+      </c>
+      <c r="U55" s="6">
+        <v>-4399776</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C56" s="6">
-        <f t="shared" ref="C56:G56" si="13">SUM(C54:C55)</f>
+        <f t="shared" ref="C56:G56" si="22">SUM(C54:C55)</f>
         <v>0</v>
       </c>
       <c r="D56" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E56" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F56" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G56" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H56" s="6">
         <f>SUM(H54:H55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="20"/>
+      <c r="I56" s="19"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P56" s="6">
+        <f t="shared" ref="P56:U56" si="23">SUM(P54:P55)</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="6">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="6">
+        <f t="shared" si="23"/>
+        <v>8208278</v>
+      </c>
+      <c r="S56" s="6">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="6">
+        <f t="shared" si="23"/>
+        <v>9066578</v>
+      </c>
+      <c r="U56" s="6">
+        <f t="shared" si="23"/>
+        <v>8980400</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>61</v>
       </c>
@@ -2238,11 +3007,23 @@
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
-      <c r="I57" s="20"/>
+      <c r="I57" s="19"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6">
+        <v>40395</v>
+      </c>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6">
+        <v>0</v>
+      </c>
+      <c r="U57" s="6">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
         <v>62</v>
       </c>
@@ -2252,11 +3033,23 @@
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
-      <c r="I58" s="20"/>
+      <c r="I58" s="19"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6">
+        <v>13306</v>
+      </c>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6">
+        <v>13892</v>
+      </c>
+      <c r="U58" s="6">
+        <v>13152</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
         <v>63</v>
       </c>
@@ -2266,75 +3059,135 @@
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
-      <c r="I59" s="20"/>
+      <c r="I59" s="19"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6">
+        <v>123745</v>
+      </c>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6">
+        <v>112597</v>
+      </c>
+      <c r="U59" s="6">
+        <v>107501</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C60" s="6">
-        <f t="shared" ref="C60:G60" si="14">SUM(C56:C59)</f>
+        <f t="shared" ref="C60:G60" si="24">SUM(C56:C59)</f>
         <v>0</v>
       </c>
       <c r="D60" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E60" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H60" s="6">
         <f>SUM(H56:H59)</f>
         <v>0</v>
       </c>
-      <c r="I60" s="20"/>
+      <c r="I60" s="19"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P60" s="6">
+        <f t="shared" ref="P60:U60" si="25">SUM(P56:P59)</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="6">
+        <f t="shared" si="25"/>
+        <v>8385724</v>
+      </c>
+      <c r="S60" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="T60" s="6">
+        <f t="shared" si="25"/>
+        <v>9193067</v>
+      </c>
+      <c r="U60" s="6">
+        <f t="shared" si="25"/>
+        <v>9103415</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="6">
-        <f t="shared" ref="C61:G61" si="15">C60+C49</f>
+        <f t="shared" ref="C61:G61" si="26">C60+C49</f>
         <v>0</v>
       </c>
       <c r="D61" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E61" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F61" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G61" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H61" s="6">
         <f>H60+H49</f>
         <v>0</v>
       </c>
-      <c r="I61" s="20"/>
+      <c r="I61" s="19"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P61" s="6">
+        <f t="shared" ref="P61:U61" si="27">P60+P49</f>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="6">
+        <f t="shared" si="27"/>
+        <v>9250429</v>
+      </c>
+      <c r="S61" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T61" s="6">
+        <f t="shared" si="27"/>
+        <v>9872334</v>
+      </c>
+      <c r="U61" s="6">
+        <f t="shared" si="27"/>
+        <v>9856686</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
         <v>66</v>
       </c>
@@ -2346,11 +3199,23 @@
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
-      <c r="I62" s="20"/>
+      <c r="I62" s="19"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6">
+        <v>773855</v>
+      </c>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6">
+        <v>736519</v>
+      </c>
+      <c r="U62" s="6">
+        <v>763620</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
         <v>67</v>
       </c>
@@ -2360,11 +3225,23 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
-      <c r="I63" s="20"/>
+      <c r="I63" s="19"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6">
+        <v>16376</v>
+      </c>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6">
+        <v>21092</v>
+      </c>
+      <c r="U63" s="6">
+        <v>15354</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
         <v>76</v>
       </c>
@@ -2374,9 +3251,21 @@
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
-      <c r="I64" s="20"/>
+      <c r="I64" s="19"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6">
+        <v>0</v>
+      </c>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6">
+        <v>45994</v>
+      </c>
+      <c r="U64" s="6">
+        <v>6225</v>
+      </c>
     </row>
     <row r="65" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
@@ -2388,9 +3277,21 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
-      <c r="I65" s="20"/>
+      <c r="I65" s="19"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6">
+        <v>3719</v>
+      </c>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6">
+        <v>4619</v>
+      </c>
+      <c r="U65" s="6">
+        <v>3865</v>
+      </c>
     </row>
     <row r="66" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
@@ -2402,41 +3303,75 @@
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
-      <c r="I66" s="20"/>
+      <c r="I66" s="19"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6">
+        <v>61949</v>
+      </c>
+      <c r="U66" s="6">
+        <v>62531</v>
+      </c>
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C67" s="6">
-        <f t="shared" ref="C67:G67" si="16">SUM(C62:C66)</f>
+        <f t="shared" ref="C67:G67" si="28">SUM(C62:C66)</f>
         <v>0</v>
       </c>
       <c r="D67" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E67" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G67" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H67" s="6">
         <f>SUM(H62:H66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="20"/>
+      <c r="I67" s="19"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
+      <c r="P67" s="6">
+        <f t="shared" ref="P67:U67" si="29">SUM(P62:P66)</f>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R67" s="6">
+        <f t="shared" si="29"/>
+        <v>793950</v>
+      </c>
+      <c r="S67" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="T67" s="6">
+        <f t="shared" si="29"/>
+        <v>870173</v>
+      </c>
+      <c r="U67" s="6">
+        <f t="shared" si="29"/>
+        <v>851595</v>
+      </c>
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
@@ -2448,9 +3383,19 @@
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
-      <c r="I68" s="20"/>
+      <c r="I68" s="19"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6">
+        <v>3596870</v>
+      </c>
+      <c r="U68" s="6">
+        <v>3373595</v>
+      </c>
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
@@ -2462,9 +3407,19 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
-      <c r="I69" s="20"/>
+      <c r="I69" s="19"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6">
+        <v>37977</v>
+      </c>
+      <c r="U69" s="6">
+        <v>21689</v>
+      </c>
     </row>
     <row r="70" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
@@ -2476,9 +3431,19 @@
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
-      <c r="I70" s="20"/>
+      <c r="I70" s="19"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6">
+        <v>468410</v>
+      </c>
+      <c r="U70" s="6">
+        <v>479701</v>
+      </c>
     </row>
     <row r="71" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
@@ -2490,9 +3455,19 @@
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
-      <c r="I71" s="20"/>
+      <c r="I71" s="19"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6">
+        <v>367603</v>
+      </c>
+      <c r="U71" s="6">
+        <v>553784</v>
+      </c>
     </row>
     <row r="72" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
@@ -2504,14 +3479,24 @@
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
-      <c r="I72" s="20"/>
+      <c r="I72" s="19"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
-      <c r="M72" s="26" t="s">
+      <c r="M72" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="N72" s="27">
-        <v>0.1</v>
+      <c r="N72" s="26">
+        <v>0.08</v>
+      </c>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6">
+        <v>3712</v>
+      </c>
+      <c r="U72" s="6">
+        <v>2301</v>
       </c>
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.3">
@@ -2524,15 +3509,25 @@
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
-      <c r="I73" s="20"/>
+      <c r="I73" s="19"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="M73" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="N73" s="28">
+      <c r="N73" s="27">
         <f>NPV(N72,C79:K79)</f>
-        <v>2922250.640758717</v>
+        <v>2861433.9142789096</v>
+      </c>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6">
+        <v>93691</v>
+      </c>
+      <c r="U73" s="6">
+        <v>75297</v>
       </c>
     </row>
     <row r="74" spans="2:24" x14ac:dyDescent="0.3">
@@ -2540,38 +3535,62 @@
         <v>84</v>
       </c>
       <c r="C74" s="6">
-        <f t="shared" ref="C74:G74" si="17">SUM(C68:C73)</f>
+        <f t="shared" ref="C74:G74" si="30">SUM(C68:C73)</f>
         <v>0</v>
       </c>
       <c r="D74" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E74" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F74" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G74" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H74" s="6">
         <f>SUM(H68:H73)</f>
         <v>0</v>
       </c>
-      <c r="I74" s="20"/>
+      <c r="I74" s="19"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="M74" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N74" s="28">
+      <c r="N74" s="27">
         <f>N73/187000</f>
-        <v>15.627008774110786</v>
+        <v>15.301785637855131</v>
+      </c>
+      <c r="P74" s="6">
+        <f t="shared" ref="P74:U74" si="31">SUM(P68:P73)</f>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="6">
+        <f t="shared" si="31"/>
+        <v>4568263</v>
+      </c>
+      <c r="U74" s="6">
+        <f t="shared" si="31"/>
+        <v>4506367</v>
       </c>
     </row>
     <row r="75" spans="2:24" x14ac:dyDescent="0.3">
@@ -2579,37 +3598,61 @@
         <v>85</v>
       </c>
       <c r="C75" s="6">
-        <f t="shared" ref="C75:G75" si="18">C74+C67</f>
+        <f t="shared" ref="C75:G75" si="32">C74+C67</f>
         <v>0</v>
       </c>
       <c r="D75" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="E75" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F75" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="G75" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H75" s="6">
         <f>H74+H67</f>
         <v>0</v>
       </c>
-      <c r="I75" s="20"/>
+      <c r="I75" s="19"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="M75" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="N75" s="29">
+      <c r="N75" s="28">
         <v>9.09</v>
+      </c>
+      <c r="P75" s="6">
+        <f t="shared" ref="P75:U75" si="33">P74+P67</f>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="6">
+        <f t="shared" si="33"/>
+        <v>793950</v>
+      </c>
+      <c r="S75" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="T75" s="6">
+        <f t="shared" si="33"/>
+        <v>5438436</v>
+      </c>
+      <c r="U75" s="6">
+        <f>U74+U67</f>
+        <v>5357962</v>
       </c>
     </row>
     <row r="76" spans="2:24" x14ac:dyDescent="0.3">
@@ -2619,16 +3662,22 @@
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
-      <c r="I76" s="20"/>
+      <c r="I76" s="19"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
-      <c r="M76" s="30" t="s">
+      <c r="M76" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="N76" s="31">
+      <c r="N76" s="30">
         <f>(N74/N75)-1</f>
-        <v>0.71914287944013044</v>
-      </c>
+        <v>0.68336475663972851</v>
+      </c>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
     </row>
     <row r="77" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
@@ -2652,17 +3701,17 @@
       <c r="H77" s="6">
         <v>1223086</v>
       </c>
-      <c r="I77" s="20">
-        <f>H77*1.45</f>
-        <v>1773474.7</v>
-      </c>
-      <c r="J77" s="24">
+      <c r="I77" s="19">
+        <f>H77*1.3</f>
+        <v>1590011.8</v>
+      </c>
+      <c r="J77" s="23">
         <f>I77*1.5</f>
-        <v>2660212.0499999998</v>
-      </c>
-      <c r="K77" s="24">
+        <v>2385017.7000000002</v>
+      </c>
+      <c r="K77" s="23">
         <f>J77*1.5</f>
-        <v>3990318.0749999997</v>
+        <v>3577526.5500000003</v>
       </c>
       <c r="P77" s="6">
         <v>183770</v>
@@ -2682,7 +3731,7 @@
       <c r="U77" s="6">
         <v>836080</v>
       </c>
-      <c r="V77" s="20"/>
+      <c r="V77" s="19"/>
       <c r="W77" s="6"/>
       <c r="X77" s="6"/>
     </row>
@@ -2708,17 +3757,17 @@
       <c r="H78" s="6">
         <v>-686684</v>
       </c>
-      <c r="I78" s="20">
-        <f>H78*1.45</f>
-        <v>-995691.79999999993</v>
-      </c>
-      <c r="J78" s="24">
+      <c r="I78" s="19">
+        <f>H78*1.43</f>
+        <v>-981958.12</v>
+      </c>
+      <c r="J78" s="23">
         <f>I78*1.5</f>
-        <v>-1493537.7</v>
-      </c>
-      <c r="K78" s="24">
+        <v>-1472937.18</v>
+      </c>
+      <c r="K78" s="23">
         <f>J78*1.5</f>
-        <v>-2240306.5499999998</v>
+        <v>-2209405.77</v>
       </c>
       <c r="P78" s="6">
         <v>-136816</v>
@@ -2738,7 +3787,7 @@
       <c r="U78" s="6">
         <v>-476052</v>
       </c>
-      <c r="V78" s="20"/>
+      <c r="V78" s="19"/>
       <c r="W78" s="6"/>
       <c r="X78" s="6"/>
     </row>
@@ -2747,51 +3796,51 @@
         <v>88</v>
       </c>
       <c r="C79" s="13">
-        <f t="shared" ref="C79:G79" si="19">SUM(C77:C78)</f>
+        <f t="shared" ref="C79:G79" si="34">SUM(C77:C78)</f>
         <v>146869</v>
       </c>
       <c r="D79" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>284864</v>
       </c>
       <c r="E79" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>77540</v>
       </c>
       <c r="F79" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>419665</v>
       </c>
       <c r="G79" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>354419</v>
       </c>
       <c r="H79" s="13">
         <f>SUM(H77:H78)</f>
         <v>536402</v>
       </c>
-      <c r="I79" s="22">
+      <c r="I79" s="21">
         <f>SUM(I77:I78)</f>
-        <v>777782.9</v>
-      </c>
-      <c r="J79" s="25">
+        <v>608053.68000000005</v>
+      </c>
+      <c r="J79" s="24">
         <f>SUM(J77:J78)</f>
-        <v>1166674.3499999999</v>
-      </c>
-      <c r="K79" s="25">
-        <f t="shared" ref="K79" si="20">SUM(K77:K78)</f>
-        <v>1750011.5249999999</v>
+        <v>912080.52000000025</v>
+      </c>
+      <c r="K79" s="24">
+        <f t="shared" ref="K79" si="35">SUM(K77:K78)</f>
+        <v>1368120.7800000003</v>
       </c>
       <c r="P79" s="13">
-        <f t="shared" ref="P79:T79" si="21">SUM(P77:P78)</f>
+        <f t="shared" ref="P79:T79" si="36">SUM(P77:P78)</f>
         <v>46954</v>
       </c>
       <c r="Q79" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>182142</v>
       </c>
       <c r="R79" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>371107</v>
       </c>
       <c r="S79" s="13">
@@ -2799,14 +3848,14 @@
         <v>536402</v>
       </c>
       <c r="T79" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>137915</v>
       </c>
       <c r="U79" s="13">
         <f>SUM(U77:U78)</f>
         <v>360028</v>
       </c>
-      <c r="V79" s="22"/>
+      <c r="V79" s="21"/>
       <c r="W79" s="13"/>
       <c r="X79" s="13"/>
     </row>

--- a/Cresent Energy.xlsx
+++ b/Cresent Energy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D3D676-B349-477A-98DE-13C3A0F53B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972EF9C1-6A46-4BE5-8BDA-A30042F6B827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
   <si>
     <t>Ticker</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>Upside</t>
+  </si>
+  <si>
+    <t>M&amp;A all stock deal? Nuts</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -506,8 +509,6 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -799,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C8"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,15 +811,18 @@
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -826,7 +830,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -834,7 +838,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -843,17 +847,17 @@
         <v>1699.83</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5617B1-6F9A-4390-87CA-ABDEA38ECD6A}">
   <dimension ref="A1:XFD79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A59" workbookViewId="0">
-      <pane xSplit="5652" topLeftCell="N1" activePane="topRight"/>
-      <selection pane="topRight" activeCell="T79" sqref="T79"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="5652" activePane="topRight"/>
+      <selection pane="topRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,22 +928,22 @@
       <c r="K3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="32" t="s">
+      <c r="T3" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="32" t="s">
+      <c r="U3" s="30" t="s">
         <v>73</v>
       </c>
       <c r="V3" s="9" t="s">
@@ -1638,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" ref="P20:U20" si="5">SUM(P9:P19)</f>
+        <f t="shared" ref="P20:T20" si="5">SUM(P9:P19)</f>
         <v>0</v>
       </c>
       <c r="Q20" s="6">
@@ -1922,54 +1926,54 @@
         <v>30</v>
       </c>
       <c r="C27" s="6">
-        <f>SUM(C22:C26)</f>
+        <f t="shared" ref="C27:H27" si="9">SUM(C22:C26)</f>
         <v>-180377</v>
       </c>
       <c r="D27" s="6">
-        <f>SUM(D22:D26)</f>
+        <f t="shared" si="9"/>
         <v>157518</v>
       </c>
       <c r="E27" s="6">
-        <f>SUM(E22:E26)</f>
+        <f t="shared" si="9"/>
         <v>-916272</v>
       </c>
       <c r="F27" s="6">
-        <f>SUM(F22:F26)</f>
+        <f t="shared" si="9"/>
         <v>-767274</v>
       </c>
       <c r="G27" s="6">
-        <f>SUM(G22:G26)</f>
+        <f t="shared" si="9"/>
         <v>20478</v>
       </c>
       <c r="H27" s="6">
-        <f>SUM(H22:H26)</f>
+        <f t="shared" si="9"/>
         <v>-387217</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="P27" s="6">
-        <f t="shared" ref="P27:U27" si="9">SUM(P22:P26)</f>
+        <f t="shared" ref="P27:U27" si="10">SUM(P22:P26)</f>
         <v>0</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>203</v>
       </c>
       <c r="S27" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T27" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-163703</v>
       </c>
       <c r="U27" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>123920</v>
       </c>
     </row>
@@ -1978,23 +1982,23 @@
         <v>31</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" ref="C28:G28" si="10">SUM(C27,C21)</f>
+        <f t="shared" ref="C28:G28" si="11">SUM(C27,C21)</f>
         <v>46737</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-216110</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-432533</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>516891</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>345218</v>
       </c>
       <c r="H28" s="6">
@@ -2005,27 +2009,27 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="P28" s="6">
-        <f t="shared" ref="P28:U28" si="11">SUM(P27,P21)</f>
+        <f t="shared" ref="P28:U28" si="12">SUM(P27,P21)</f>
         <v>0</v>
       </c>
       <c r="Q28" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-7219</v>
       </c>
       <c r="S28" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T28" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8524</v>
       </c>
       <c r="U28" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>203555</v>
       </c>
     </row>
@@ -2072,23 +2076,23 @@
         <v>33</v>
       </c>
       <c r="C30" s="6">
-        <f t="shared" ref="C30:G30" si="12">C28-C29</f>
+        <f t="shared" ref="C30:G30" si="13">C28-C29</f>
         <v>46709</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-216124</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-432227</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>480600</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>321991</v>
       </c>
       <c r="H30" s="6">
@@ -2099,27 +2103,27 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="P30" s="6">
-        <f t="shared" ref="P30:U30" si="13">P28-P29</f>
+        <f t="shared" ref="P30:U30" si="14">P28-P29</f>
         <v>0</v>
       </c>
       <c r="Q30" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-5579</v>
       </c>
       <c r="S30" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T30" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5911</v>
       </c>
       <c r="U30" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>162498</v>
       </c>
     </row>
@@ -2242,11 +2246,11 @@
         <v>36</v>
       </c>
       <c r="C34" s="13">
-        <f t="shared" ref="C34:D34" si="14">C30-C32-C33-C31</f>
+        <f t="shared" ref="C34:D34" si="15">C30-C32-C33-C31</f>
         <v>0</v>
       </c>
       <c r="D34" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-432248</v>
       </c>
       <c r="E34" s="13">
@@ -2254,11 +2258,11 @@
         <v>-19376</v>
       </c>
       <c r="F34" s="13">
-        <f t="shared" ref="F34:G34" si="15">F30-F32-F33</f>
+        <f t="shared" ref="F34:G34" si="16">F30-F32-F33</f>
         <v>96674</v>
       </c>
       <c r="G34" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>67610</v>
       </c>
       <c r="H34" s="13">
@@ -2269,27 +2273,27 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
       <c r="P34" s="13">
-        <f>SUM(P30:P33)</f>
+        <f t="shared" ref="P34:U34" si="17">SUM(P30:P33)</f>
         <v>0</v>
       </c>
       <c r="Q34" s="13">
-        <f>SUM(Q30:Q33)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R34" s="13">
-        <f>SUM(R30:R33)</f>
+        <f t="shared" si="17"/>
         <v>-9945</v>
       </c>
       <c r="S34" s="13">
-        <f>SUM(S30:S33)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T34" s="13">
-        <f>SUM(T30:T33)</f>
+        <f t="shared" si="17"/>
         <v>-2150</v>
       </c>
       <c r="U34" s="13">
-        <f>SUM(U30:U33)</f>
+        <f t="shared" si="17"/>
         <v>153221</v>
       </c>
     </row>
@@ -2311,16 +2315,16 @@
       <c r="H35" s="8">
         <v>-0.88</v>
       </c>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31">
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31">
+      <c r="S35" s="29"/>
+      <c r="T35" s="29">
         <v>-0.01</v>
       </c>
-      <c r="U35" s="31">
+      <c r="U35" s="29">
         <v>0.61</v>
       </c>
     </row>
@@ -2342,16 +2346,16 @@
       <c r="H36" s="1">
         <v>-0.88</v>
       </c>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31">
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31">
+      <c r="S36" s="29"/>
+      <c r="T36" s="29">
         <v>-0.01</v>
       </c>
-      <c r="U36" s="31">
+      <c r="U36" s="29">
         <v>0.6</v>
       </c>
     </row>
@@ -2373,16 +2377,16 @@
       <c r="H37" s="1">
         <v>0</v>
       </c>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31">
-        <v>0</v>
-      </c>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31">
-        <v>0</v>
-      </c>
-      <c r="U37" s="31">
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29">
+        <v>0</v>
+      </c>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29">
+        <v>0</v>
+      </c>
+      <c r="U37" s="29">
         <v>0</v>
       </c>
     </row>
@@ -2674,23 +2678,23 @@
         <v>53</v>
       </c>
       <c r="C49" s="6">
-        <f t="shared" ref="C49:G49" si="16">SUM(C42:C48)</f>
+        <f t="shared" ref="C49:G49" si="18">SUM(C42:C48)</f>
         <v>0</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E49" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H49" s="6">
@@ -2701,27 +2705,27 @@
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="P49" s="6">
-        <f t="shared" ref="P49:U49" si="17">SUM(P42:P48)</f>
+        <f t="shared" ref="P49:U49" si="19">SUM(P42:P48)</f>
         <v>0</v>
       </c>
       <c r="Q49" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R49" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>864705</v>
       </c>
       <c r="S49" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T49" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>679267</v>
       </c>
       <c r="U49" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>753271</v>
       </c>
     </row>
@@ -2782,23 +2786,23 @@
         <v>56</v>
       </c>
       <c r="C52" s="6">
-        <f t="shared" ref="C52:G52" si="18">SUM(C50:C51)</f>
+        <f t="shared" ref="C52:G52" si="20">SUM(C50:C51)</f>
         <v>0</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E52" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H52" s="6">
@@ -2809,27 +2813,27 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="P52" s="6">
-        <f t="shared" ref="P52:U52" si="19">SUM(P50:P51)</f>
+        <f t="shared" ref="P52:U52" si="21">SUM(P50:P51)</f>
         <v>0</v>
       </c>
       <c r="Q52" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R52" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>11495851</v>
       </c>
       <c r="S52" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T52" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>13054041</v>
       </c>
       <c r="U52" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>13149225</v>
       </c>
     </row>
@@ -2864,23 +2868,23 @@
         <v>58</v>
       </c>
       <c r="C54" s="6">
-        <f t="shared" ref="C54:G54" si="20">SUM(C52:C53)</f>
+        <f t="shared" ref="C54:G54" si="22">SUM(C52:C53)</f>
         <v>0</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E54" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H54" s="6">
@@ -2891,27 +2895,27 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="P54" s="6">
-        <f t="shared" ref="P54:U54" si="21">SUM(P52:P53)</f>
+        <f t="shared" ref="P54:U54" si="23">SUM(P52:P53)</f>
         <v>0</v>
       </c>
       <c r="Q54" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="R54" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>11703409</v>
       </c>
       <c r="S54" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T54" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>13284118</v>
       </c>
       <c r="U54" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>13380176</v>
       </c>
     </row>
@@ -2946,23 +2950,23 @@
         <v>60</v>
       </c>
       <c r="C56" s="6">
-        <f t="shared" ref="C56:G56" si="22">SUM(C54:C55)</f>
+        <f t="shared" ref="C56:G56" si="24">SUM(C54:C55)</f>
         <v>0</v>
       </c>
       <c r="D56" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E56" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F56" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G56" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H56" s="6">
@@ -2973,27 +2977,27 @@
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
       <c r="P56" s="6">
-        <f t="shared" ref="P56:U56" si="23">SUM(P54:P55)</f>
+        <f t="shared" ref="P56:U56" si="25">SUM(P54:P55)</f>
         <v>0</v>
       </c>
       <c r="Q56" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R56" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8208278</v>
       </c>
       <c r="S56" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T56" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9066578</v>
       </c>
       <c r="U56" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8980400</v>
       </c>
     </row>
@@ -3080,23 +3084,23 @@
         <v>64</v>
       </c>
       <c r="C60" s="6">
-        <f t="shared" ref="C60:G60" si="24">SUM(C56:C59)</f>
+        <f t="shared" ref="C60:G60" si="26">SUM(C56:C59)</f>
         <v>0</v>
       </c>
       <c r="D60" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E60" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H60" s="6">
@@ -3107,27 +3111,27 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="P60" s="6">
-        <f t="shared" ref="P60:U60" si="25">SUM(P56:P59)</f>
+        <f t="shared" ref="P60:U60" si="27">SUM(P56:P59)</f>
         <v>0</v>
       </c>
       <c r="Q60" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R60" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>8385724</v>
       </c>
       <c r="S60" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T60" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9193067</v>
       </c>
       <c r="U60" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9103415</v>
       </c>
     </row>
@@ -3136,23 +3140,23 @@
         <v>65</v>
       </c>
       <c r="C61" s="6">
-        <f t="shared" ref="C61:G61" si="26">C60+C49</f>
+        <f t="shared" ref="C61:G61" si="28">C60+C49</f>
         <v>0</v>
       </c>
       <c r="D61" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E61" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F61" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G61" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H61" s="6">
@@ -3163,27 +3167,27 @@
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="P61" s="6">
-        <f t="shared" ref="P61:U61" si="27">P60+P49</f>
+        <f t="shared" ref="P61:U61" si="29">P60+P49</f>
         <v>0</v>
       </c>
       <c r="Q61" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R61" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9250429</v>
       </c>
       <c r="S61" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="T61" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9872334</v>
       </c>
       <c r="U61" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9856686</v>
       </c>
     </row>
@@ -3322,23 +3326,23 @@
         <v>79</v>
       </c>
       <c r="C67" s="6">
-        <f t="shared" ref="C67:G67" si="28">SUM(C62:C66)</f>
+        <f t="shared" ref="C67:G67" si="30">SUM(C62:C66)</f>
         <v>0</v>
       </c>
       <c r="D67" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E67" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G67" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H67" s="6">
@@ -3349,27 +3353,27 @@
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="P67" s="6">
-        <f t="shared" ref="P67:U67" si="29">SUM(P62:P66)</f>
+        <f t="shared" ref="P67:U67" si="31">SUM(P62:P66)</f>
         <v>0</v>
       </c>
       <c r="Q67" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="R67" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>793950</v>
       </c>
       <c r="S67" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T67" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>870173</v>
       </c>
       <c r="U67" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>851595</v>
       </c>
     </row>
@@ -3482,10 +3486,10 @@
       <c r="I72" s="19"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
-      <c r="M72" s="25" t="s">
+      <c r="M72" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="N72" s="26">
+      <c r="N72" s="24">
         <v>0.08</v>
       </c>
       <c r="P72" s="6"/>
@@ -3515,7 +3519,7 @@
       <c r="M73" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="N73" s="27">
+      <c r="N73" s="25">
         <f>NPV(N72,C79:K79)</f>
         <v>2861433.9142789096</v>
       </c>
@@ -3535,23 +3539,23 @@
         <v>84</v>
       </c>
       <c r="C74" s="6">
-        <f t="shared" ref="C74:G74" si="30">SUM(C68:C73)</f>
+        <f t="shared" ref="C74:G74" si="32">SUM(C68:C73)</f>
         <v>0</v>
       </c>
       <c r="D74" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="E74" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F74" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="G74" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H74" s="6">
@@ -3564,32 +3568,32 @@
       <c r="M74" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N74" s="27">
+      <c r="N74" s="25">
         <f>N73/187000</f>
         <v>15.301785637855131</v>
       </c>
       <c r="P74" s="6">
-        <f t="shared" ref="P74:U74" si="31">SUM(P68:P73)</f>
+        <f t="shared" ref="P74:U74" si="33">SUM(P68:P73)</f>
         <v>0</v>
       </c>
       <c r="Q74" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R74" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S74" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="T74" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4568263</v>
       </c>
       <c r="U74" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4506367</v>
       </c>
     </row>
@@ -3598,23 +3602,23 @@
         <v>85</v>
       </c>
       <c r="C75" s="6">
-        <f t="shared" ref="C75:G75" si="32">C74+C67</f>
+        <f t="shared" ref="C75:G75" si="34">C74+C67</f>
         <v>0</v>
       </c>
       <c r="D75" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="E75" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F75" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G75" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H75" s="6">
@@ -3627,27 +3631,27 @@
       <c r="M75" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="N75" s="28">
+      <c r="N75" s="26">
         <v>9.09</v>
       </c>
       <c r="P75" s="6">
-        <f t="shared" ref="P75:U75" si="33">P74+P67</f>
+        <f t="shared" ref="P75:T75" si="35">P74+P67</f>
         <v>0</v>
       </c>
       <c r="Q75" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R75" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>793950</v>
       </c>
       <c r="S75" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="T75" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5438436</v>
       </c>
       <c r="U75" s="6">
@@ -3665,10 +3669,10 @@
       <c r="I76" s="19"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
-      <c r="M76" s="29" t="s">
+      <c r="M76" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="N76" s="30">
+      <c r="N76" s="28">
         <f>(N74/N75)-1</f>
         <v>0.68336475663972851</v>
       </c>
@@ -3705,11 +3709,11 @@
         <f>H77*1.3</f>
         <v>1590011.8</v>
       </c>
-      <c r="J77" s="23">
+      <c r="J77" s="6">
         <f>I77*1.5</f>
         <v>2385017.7000000002</v>
       </c>
-      <c r="K77" s="23">
+      <c r="K77" s="6">
         <f>J77*1.5</f>
         <v>3577526.5500000003</v>
       </c>
@@ -3761,11 +3765,11 @@
         <f>H78*1.43</f>
         <v>-981958.12</v>
       </c>
-      <c r="J78" s="23">
+      <c r="J78" s="6">
         <f>I78*1.5</f>
         <v>-1472937.18</v>
       </c>
-      <c r="K78" s="23">
+      <c r="K78" s="6">
         <f>J78*1.5</f>
         <v>-2209405.77</v>
       </c>
@@ -3796,23 +3800,23 @@
         <v>88</v>
       </c>
       <c r="C79" s="13">
-        <f t="shared" ref="C79:G79" si="34">SUM(C77:C78)</f>
+        <f t="shared" ref="C79:G79" si="36">SUM(C77:C78)</f>
         <v>146869</v>
       </c>
       <c r="D79" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>284864</v>
       </c>
       <c r="E79" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>77540</v>
       </c>
       <c r="F79" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>419665</v>
       </c>
       <c r="G79" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>354419</v>
       </c>
       <c r="H79" s="13">
@@ -3823,24 +3827,24 @@
         <f>SUM(I77:I78)</f>
         <v>608053.68000000005</v>
       </c>
-      <c r="J79" s="24">
+      <c r="J79" s="13">
         <f>SUM(J77:J78)</f>
         <v>912080.52000000025</v>
       </c>
-      <c r="K79" s="24">
-        <f t="shared" ref="K79" si="35">SUM(K77:K78)</f>
+      <c r="K79" s="13">
+        <f t="shared" ref="K79" si="37">SUM(K77:K78)</f>
         <v>1368120.7800000003</v>
       </c>
       <c r="P79" s="13">
-        <f t="shared" ref="P79:T79" si="36">SUM(P77:P78)</f>
+        <f t="shared" ref="P79:T79" si="38">SUM(P77:P78)</f>
         <v>46954</v>
       </c>
       <c r="Q79" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>182142</v>
       </c>
       <c r="R79" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>371107</v>
       </c>
       <c r="S79" s="13">
@@ -3848,7 +3852,7 @@
         <v>536402</v>
       </c>
       <c r="T79" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>137915</v>
       </c>
       <c r="U79" s="13">
